--- a/FlashCardsData/SrcData/왕초보_일본어_동사/kelo_jap_begin_verb_1_24.xlsx
+++ b/FlashCardsData/SrcData/왕초보_일본어_동사/kelo_jap_begin_verb_1_24.xlsx
@@ -439,9 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
